--- a/biology/Histoire de la zoologie et de la botanique/Federico_Medem/Federico_Medem.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Federico_Medem/Federico_Medem.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Federico Medem (né Friedrich Johann comte von Medem) est un herpétologiste colombien d’origine lettonne, né le 29 août 1912 à Rīga et mort le 1er mai 1984 à Bogota.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D’origine allemande et noble, il se considère comme un Letton. Il quitte son pays après la révolution russe et étudie à l’Université Humboldt de Berlin puis à celle de Tübingen. Son doctorat se passe en partie à la station zoologique de Naples où travaille sous les ordres de Gustav Kramer (1910-1959). Il fait son service militaire sur le front russe et travaille après-guerre en Allemagne et en Suisse.
 Il émigre en Colombie en 1950 et travaille à la station de recherche de Villavicencio. Il travaille principalement sur les tortues et les crocodiles et publie en 1981 et 1983 les deux volumes de son Los Crocodylia de Sur America.
@@ -544,7 +558,9 @@
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Micrurus medemi Roze, 1967
 Centrolene medemi (Cochran &amp; Goin, 1970)
@@ -579,7 +595,9 @@
           <t>Taxons décrits</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Mesoclemmys dahli (Zangerl &amp; Medem, 1958)</t>
         </is>
@@ -609,7 +627,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Kraig Adler (1989). Contributions to the History of Herpetology, Society for the study of amphibians and reptiles.</t>
         </is>
